--- a/calendario_bandas.xlsx
+++ b/calendario_bandas.xlsx
@@ -1,45 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\AppCuzco\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,24 +49,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,30 +416,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col width="10.28515625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
+    <row r="1">
+      <c r="D1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="D2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sala B</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2 horas</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/calendario_bandas.xlsx
+++ b/calendario_bandas.xlsx
@@ -15,10 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -49,13 +50,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,43 +437,49 @@
     <row r="1">
       <c r="D1" s="3" t="n"/>
     </row>
-    <row r="2">
-      <c r="D2" s="4" t="n"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Sala B</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D20" s="6" t="n">
         <v>45139</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2 horas</t>
         </is>

--- a/calendario_bandas.xlsx
+++ b/calendario_bandas.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,49 +437,65 @@
     <row r="1">
       <c r="D1" s="3" t="n"/>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Sala B</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n">
-        <v>45139</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2 horas</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>carlitos tevez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>teveeez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ererere</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>2 horas</t>
         </is>

--- a/calendario_bandas.xlsx
+++ b/calendario_bandas.xlsx
@@ -15,11 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -50,14 +47,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -435,69 +427,180 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="3" t="n"/>
+      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A2" t="n">
+        <v>14</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Sala B</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>02/08/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>peruano agreste</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 horas</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>carlitos tevez</t>
-        </is>
+      <c r="A3" t="n">
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teveeez</t>
+          <t>asdasda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Sala B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ererere</t>
+          <t>02/08/2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2 horas</t>
+          <t>peruano agreste</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3 horas</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sala B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>peruano agreste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4 horas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sala B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02/08/2026</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>peruano agreste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5 horas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asdasda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sala B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02/08/2027</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>peruano agreste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6 horas</t>
         </is>
       </c>
     </row>

--- a/calendario_bandas.xlsx
+++ b/calendario_bandas.xlsx
@@ -15,15 +15,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,9 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +426,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -430,181 +441,97 @@
       <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>14</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Peruano</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>asdasda</t>
+          <t>Sala C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sala B</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
+      <c r="D2" s="3" t="n">
+        <v>45142</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>Carlos tevez</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>peruano agreste</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>2 horas</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Carlitos tevez</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asdasda</t>
+          <t>Sala B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sala B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>02/08/2024</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>peruano agreste</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3 horas</t>
+          <t>2 horas</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>16</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ortopedia</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>asdasda</t>
+          <t>tete</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sala B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>45141</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02/08/2025</t>
+          <t>carti</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>peruano agreste</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4 horas</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asdasda</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sala B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>02/08/2026</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>peruano agreste</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5 horas</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>asdasda</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sala B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>02/08/2027</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>peruano agreste</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6 horas</t>
+          <t>agugi</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>